--- a/fichier_Ramzi/chapitre_6.xlsx
+++ b/fichier_Ramzi/chapitre_6.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="24" windowWidth="22116" windowHeight="9792"/>
+    <workbookView xWindow="480" yWindow="24" windowWidth="22116" windowHeight="9792" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="90%" sheetId="2" r:id="rId2"/>
+    <sheet name="99%" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Feuil1!$A$25,Feuil1!$C$25</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Feuil1!$A$16,Feuil1!$C$16</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">100</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Feuil1!$A$25</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Feuil1!$C$16</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Feuil1!$A$25</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">Feuil1!$C$25</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">Feuil1!$C$25</definedName>
@@ -29,16 +29,16 @@
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Feuil1!$E$25</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Feuil1!$E$16</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">entier</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">entier</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">0</definedName>
@@ -50,7 +50,7 @@
     <definedName name="solver_tim" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.05</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_val" localSheetId="0" hidden="1">0.1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>a</t>
   </si>
@@ -106,6 +106,18 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>lamda_r</t>
+  </si>
+  <si>
+    <t>a_r</t>
+  </si>
+  <si>
+    <t>Fiabilité à 90%</t>
+  </si>
+  <si>
+    <t>Fiabilité à 99%</t>
   </si>
 </sst>
 </file>
@@ -187,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -200,6 +212,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -261,6 +274,19 @@
               </a:solidFill>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:trendlineType val="log"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.16693640390121689"/>
+                  <c:y val="9.9490376202974629E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Feuil1!$C$2:$C$5</c:f>
@@ -271,13 +297,13 @@
                   <c:v>9.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.628299999999999</c:v>
+                  <c:v>14.892200000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.757000000000001</c:v>
+                  <c:v>23.4617</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.895199999999999</c:v>
+                  <c:v>32.9011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -322,10 +348,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$H$3:$H$36</c:f>
+              <c:f>Feuil1!$H$3:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>9.6</c:v>
                 </c:pt>
@@ -336,219 +362,206 @@
                   <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.628299999999999</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.5</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.5</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.5</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14</c:v>
+                  <c:v>14.892200000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15.5</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>23.757000000000001</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16.5</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17.5</c:v>
+                  <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18.5</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>19.5</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>20.5</c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>21.5</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>22</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>22.5</c:v>
+                  <c:v>23.4617</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>23.5</c:v>
+                  <c:v>24.5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>24.5</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>31.895199999999999</c:v>
+                  <c:v>32.9011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$J$3:$J$36</c:f>
+              <c:f>Feuil1!$J$3:$J$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.8642233540720096E-3</c:v>
+                  <c:v>9.6534289391184483E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1639011492605009E-2</c:v>
+                  <c:v>2.1189437198368053E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10124241377013965</c:v>
+                  <c:v>3.2186965170499231E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2850970089781953E-2</c:v>
+                  <c:v>4.269398070674725E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3550906946728446E-2</c:v>
+                  <c:v>5.2752317490098413E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.3783071828803902E-2</c:v>
+                  <c:v>6.2398678102290092E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.3586236544605684E-2</c:v>
+                  <c:v>7.1665440116382984E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.2994561691697837E-2</c:v>
+                  <c:v>8.058130987853114E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.2038298678803079E-2</c:v>
+                  <c:v>8.9171857256941212E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.0744363190449762E-2</c:v>
+                  <c:v>0.10376289341840865</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.9136807327361534E-2</c:v>
+                  <c:v>0.10546615199237032</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.10723721115794632</c:v>
+                  <c:v>0.11320896466992357</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.11506500963124086</c:v>
+                  <c:v>0.12070514883944994</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.12263776723793211</c:v>
+                  <c:v>0.12796991009939324</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.21640019730294718</c:v>
+                  <c:v>0.13501709044155669</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.12997141012388203</c:v>
+                  <c:v>0.14185932653861047</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.13708042332200066</c:v>
+                  <c:v>0.14850818571351856</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.14397801920472611</c:v>
+                  <c:v>0.15497428326333998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.15067628204981554</c:v>
+                  <c:v>0.16126738412368158</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.15718629266895451</c:v>
+                  <c:v>0.16739649131656856</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.16351823630763923</c:v>
+                  <c:v>0.17336992319123318</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.16968149643846037</c:v>
+                  <c:v>0.17919538111965466</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.17568473660286096</c:v>
+                  <c:v>0.18488000902815638</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.18153597208206901</c:v>
+                  <c:v>0.19043044591862646</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.18724263287605147</c:v>
+                  <c:v>0.19585287234717308</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.192811619224528</c:v>
+                  <c:v>0.20115305167563646</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.19824935070452404</c:v>
+                  <c:v>0.20633636678583236</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.20356180977539373</c:v>
+                  <c:v>0.21102322318556146</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.20875458050761969</c:v>
+                  <c:v>0.21637222660429611</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.21383288312027943</c:v>
+                  <c:v>0.22123391271074561</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.21880160485955144</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.22366532767341735</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.28566828383151033</c:v>
+                  <c:v>0.29071594663616679</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="92762880"/>
-        <c:axId val="92764800"/>
+        <c:axId val="55232000"/>
+        <c:axId val="55233536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="92762880"/>
+        <c:axId val="55232000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -573,12 +586,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92764800"/>
+        <c:crossAx val="55233536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92764800"/>
+        <c:axId val="55233536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -604,7 +617,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92762880"/>
+        <c:crossAx val="55232000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -618,7 +631,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -649,7 +662,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.42773600174978132"/>
-          <c:y val="3.2407407407407413E-2"/>
+          <c:y val="3.2407407407407419E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -685,13 +698,13 @@
                   <c:v>13.67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.931799999999999</c:v>
+                  <c:v>20.293500000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.862499999999997</c:v>
+                  <c:v>32.761699999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45.883299999999998</c:v>
+                  <c:v>46.107599999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -733,10 +746,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$N$2:$N$54</c:f>
+              <c:f>Feuil1!$N$2:$N$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>13.67</c:v>
                 </c:pt>
@@ -756,155 +769,149 @@
                   <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.931799999999999</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.5</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.5</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18</c:v>
+                  <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18.5</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19</c:v>
+                  <c:v>19.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.5</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20.5</c:v>
+                  <c:v>20.293500000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21</c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21.5</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>22.5</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>23</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.5</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24</c:v>
+                  <c:v>24.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>34.862499999999997</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>24.5</c:v>
+                  <c:v>25.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>25.5</c:v>
+                  <c:v>26.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>26.5</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>27.5</c:v>
+                  <c:v>28.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>28</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>28.5</c:v>
+                  <c:v>29.5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>29</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>29.5</c:v>
+                  <c:v>30.5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>30.5</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>31</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>31.5</c:v>
+                  <c:v>32.5</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>32</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>32.5</c:v>
+                  <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>33</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>33.5</c:v>
+                  <c:v>34.5</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>34</c:v>
+                  <c:v>32.761699999999998</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>34.5</c:v>
+                  <c:v>35.5</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>35.5</c:v>
+                  <c:v>36.5</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>36</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>36.5</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>37.5</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>45.883299999999998</c:v>
+                  <c:v>46.107599999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$P$2:$P$54</c:f>
+              <c:f>Feuil1!$P$2:$P$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -924,156 +931,149 @@
                   <c:v>2.9741749255094502E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10054221158869267</c:v>
+                  <c:v>3.7244951291596828E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.7244951291596828E-2</c:v>
+                  <c:v>4.4512424977807566E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.4512424977807566E-2</c:v>
+                  <c:v>5.1558406628230552E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.1558406628230552E-2</c:v>
+                  <c:v>5.8395884540120638E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.8395884540120638E-2</c:v>
+                  <c:v>6.5036740508877464E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.5036740508877464E-2</c:v>
+                  <c:v>7.1491871855695444E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.1491871855695444E-2</c:v>
+                  <c:v>7.7771297099637524E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.7771297099637524E-2</c:v>
+                  <c:v>8.3884247834540376E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.3884247834540376E-2</c:v>
+                  <c:v>8.9839248915608128E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.9839248915608128E-2</c:v>
+                  <c:v>9.5644188695308344E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.5644188695308344E-2</c:v>
+                  <c:v>9.3264457003555415E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.10130638075359878</c:v>
+                  <c:v>0.10683261832858895</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.10683261832858895</c:v>
+                  <c:v>0.1122292224588871</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.1122292224588871</c:v>
+                  <c:v>0.11750208468920523</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.11750208468920523</c:v>
+                  <c:v>0.12265670505927677</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.12265670505927677</c:v>
+                  <c:v>0.12769822598732553</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.12769822598732553</c:v>
+                  <c:v>0.13263146256891536</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.13263146256891536</c:v>
+                  <c:v>0.13746092973654303</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.21977123832795997</c:v>
+                  <c:v>0.14219086666212091</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.13746092973654303</c:v>
+                  <c:v>0.14682525873133004</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.14219086666212091</c:v>
+                  <c:v>0.15136785737393743</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.14682525873133004</c:v>
+                  <c:v>0.15582219799614619</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.15136785737393743</c:v>
+                  <c:v>0.16019161622874251</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.15582219799614619</c:v>
+                  <c:v>0.16447926267723353</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.16019161622874251</c:v>
+                  <c:v>0.16868811633660774</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.16447926267723353</c:v>
+                  <c:v>0.17282099681312421</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.16868811633660774</c:v>
+                  <c:v>0.17688057547812955</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.17282099681312421</c:v>
+                  <c:v>0.18086938566390554</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.17688057547812955</c:v>
+                  <c:v>0.18478983199854254</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.18086938566390554</c:v>
+                  <c:v>0.18864419896558729</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.18478983199854254</c:v>
+                  <c:v>0.19243465876440286</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.18864419896558729</c:v>
+                  <c:v>0.1961632785386562</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.19243465876440286</c:v>
+                  <c:v>0.199832027032882</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.1961632785386562</c:v>
+                  <c:v>0.20344278073054331</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.199832027032882</c:v>
+                  <c:v>0.20699732952128261</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.20344278073054331</c:v>
+                  <c:v>0.21049738194001411</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.20699732952128261</c:v>
+                  <c:v>0.21394457001607547</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.21049738194001411</c:v>
+                  <c:v>0.21734045376672953</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.21394457001607547</c:v>
+                  <c:v>0.20531013173839563</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.21734045376672953</c:v>
+                  <c:v>0.22398421301553073</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.22068652536584762</c:v>
+                  <c:v>0.22723488454569751</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.22398421301553073</c:v>
+                  <c:v>0.23043985076424411</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.22723488454569751</c:v>
+                  <c:v>0.23360036857821995</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.23043985076424411</c:v>
+                  <c:v>0.2367176439045332</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.23360036857821995</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.2367176439045332</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.28347616446127355</c:v>
+                  <c:v>0.28460409499341843</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="103397248"/>
-        <c:axId val="106205184"/>
+        <c:axId val="55272192"/>
+        <c:axId val="55274112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="103397248"/>
+        <c:axId val="55272192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1098,12 +1098,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106205184"/>
+        <c:crossAx val="55274112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="106205184"/>
+        <c:axId val="55274112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1129,7 +1129,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103397248"/>
+        <c:crossAx val="55272192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1143,7 +1143,1182 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="fr-FR"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="log"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.7113517060367456E-2"/>
+                  <c:y val="-7.2723826188393112E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'90%'!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.892200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.4617</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.9011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'90%'!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="92620672"/>
+        <c:axId val="70602112"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="92620672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="70602112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="70602112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92620672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="fr-FR"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'90%'!$H$2:$H$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>35.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>36.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'90%'!$I$2:$I$59</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>-4.1768563662902825E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6204223185709612E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7330061719234569E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8494865471608843E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9163288488608949E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9377595949120057E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.91748746339813E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.8587845790768709E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.7645524506652075E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.6373759107661985E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.4795675862366813E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1029320482645304</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11080160574204811</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.11842129333754736</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.12580649141756828</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.13297120257349182</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.13992821142307243</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.14668922189507938</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1532649757002269</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.15966535499994561</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.16589947173672814</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1719757456529577</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.17790197267464691</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.18368538505362142</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.18933270443206796</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.19485018880599581</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.20024367421048972</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.2055186118229958</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.21068010107602719</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.21573291928350691</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.22068154821216346</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.22553019796836804</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.23028282851945125</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.23494316912515567</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.23951473591812233</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.24400084784103893</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.24840464112140614</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.25272908244204884</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.25697698094590504</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.26115099919675377</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.26525366320298571</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.26928737159891725</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.2732544040672078</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.27715692907643508</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.28099701099958085</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.28477661667193432</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.28849762144056601</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.29216181475195513</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.29577090531944494</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.29932652590787867</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.30283023776895535</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.30628353475745917</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.30968784715552877</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.31304454522946634</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.31635494254122698</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.31962029903461375</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.32284182391432759</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.32602067833433246</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="70594560"/>
+        <c:axId val="70598016"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="70594560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="70598016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="70598016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="70594560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="fr-FR"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="log"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'99%'!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.293500000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.761699999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.107599999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'99%'!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="128160896"/>
+        <c:axId val="128277888"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="128160896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="128277888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="128277888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="128160896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="fr-FR"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'99%'!$J$2:$J$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="74"/>
+                <c:pt idx="0">
+                  <c:v>13.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>35.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>36.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>46.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>48.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'99%'!$K$2:$K$75</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="74"/>
+                <c:pt idx="0">
+                  <c:v>-7.3592017265822207E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0128164372772455E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3469824511793349E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.164009846563264E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9542445765973424E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7193882059787242E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4609851798474875E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.180441591754803E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.8790412304001949E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.557959365297561E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.2182746432311151E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.8609793979112053E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.4869886202297851E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.0971477926511723E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.6922397560791351E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.10272990749134492</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.10840075736720167</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.11394123125935418</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1193571895197002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.12465410603892502</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.12983710149717731</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.13491097311385492</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.13988022132971423</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.14474907379323632</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.14952150697161559</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.15420126566317716</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.15879188065111449</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.16329668470704328</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.16771882712607866</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.17206128695222411</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.17632688503317973</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.18051829502674022</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.18463805346633155</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.1886885689805794</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.19267213075082112</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.19659091628092018</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.20044699854541248</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.20424235257473411</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.20797886152990175</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.21165832231342174</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.21528245075827601</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.2188528864324949</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.22237119709299269</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.22583888281894859</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.22925737985201011</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.23262806416792248</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.23595225480181548</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.23923121694725802</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.24246616484730399</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.24565826449405892</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.24880863615179105</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.25191835671724472</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.25498846192960534</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.25801994844145859</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.26101377576111084</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.26397086807573822</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.26689211596403317</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.26977837800629179</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.27263048229921949</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.27544922788214854</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.27823538608080778</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.28098970177430083</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.28371289459049887</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.28640566003464696</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.28906867055561403</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.29170257655387188</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.29430800733498774</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.29688557201212407</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.2994358603607834</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.30195944362880178</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.30445687530436838</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.30692869184466098</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.30937541336748942</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.31179754430818318</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="94330240"/>
+        <c:axId val="94348416"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="94330240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="94348416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="94348416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="94330240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1154,15 +2329,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1184,15 +2359,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1200,6 +2375,136 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>754380</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>678180</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>678180</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1501,10 +2806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1581,7 +2886,7 @@
         <v>0.1</v>
       </c>
       <c r="C3">
-        <v>14.628299999999999</v>
+        <v>14.892200000000001</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D5" si="0">-$A$22*(C3^$B$22-$C$2^$B$22)</f>
@@ -1592,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.931799999999999</v>
+        <v>20.293500000000002</v>
       </c>
       <c r="H3">
         <f>C2</f>
@@ -1631,7 +2936,7 @@
         <v>0.2</v>
       </c>
       <c r="C4">
-        <v>23.757000000000001</v>
+        <v>23.4617</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
@@ -1642,25 +2947,25 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>34.862499999999997</v>
+        <v>32.761699999999998</v>
       </c>
       <c r="H4">
         <v>10</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I36" si="3">(H4^$C$16-$C$2^$C$16+1)</f>
-        <v>1.0054664400433257</v>
+        <f t="shared" ref="I4:I34" si="3">(H4^$C$16-$C$2^$C$16+1)</f>
+        <v>1.0016624769031237</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J36" si="4">$A$16*LN(I4)</f>
-        <v>9.8642233540720096E-3</v>
+        <f t="shared" ref="J4:J34" si="4">$A$16*LN(I4)</f>
+        <v>9.6534289391184483E-3</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K36" si="5">-$A$22*(H4^$B$22-$H$3^$B$22)</f>
+        <f t="shared" ref="K4:K34" si="5">-$A$22*(H4^$B$22-$H$3^$B$22)</f>
         <v>0</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L36" si="6">$D$22*(1-EXP(K4))</f>
+        <f t="shared" ref="L4:L34" si="6">$D$22*(1-EXP(K4))</f>
         <v>0</v>
       </c>
       <c r="N4">
@@ -1681,7 +2986,7 @@
         <v>0.3</v>
       </c>
       <c r="C5">
-        <v>31.895199999999999</v>
+        <v>32.9011</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
@@ -1692,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>45.883299999999998</v>
+        <v>46.107599999999998</v>
       </c>
       <c r="H5">
         <f t="shared" ref="H5:H35" si="7">H4+0.5</f>
@@ -1700,11 +3005,11 @@
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>1.0120307924074172</v>
+        <v>1.0036527897400014</v>
       </c>
       <c r="J5">
         <f t="shared" si="4"/>
-        <v>2.1639011492605009E-2</v>
+        <v>2.1189437198368053E-2</v>
       </c>
       <c r="K5">
         <f t="shared" si="5"/>
@@ -1729,16 +3034,15 @@
     </row>
     <row r="6" spans="1:16">
       <c r="H6">
-        <f>C3</f>
-        <v>14.628299999999999</v>
+        <v>11</v>
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
-        <v>1.0575474979657766</v>
+        <v>1.0055538803867419</v>
       </c>
       <c r="J6">
         <f t="shared" si="4"/>
-        <v>0.10124241377013965</v>
+        <v>3.2186965170499231E-2</v>
       </c>
       <c r="K6">
         <f t="shared" si="5"/>
@@ -1763,15 +3067,16 @@
     </row>
     <row r="7" spans="1:16">
       <c r="H7">
-        <v>11</v>
+        <f>H6+0.5</f>
+        <v>11.5</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>1.0183212001949951</v>
+        <v>1.0073735420302155</v>
       </c>
       <c r="J7">
         <f t="shared" si="4"/>
-        <v>3.2850970089781953E-2</v>
+        <v>4.269398070674725E-2</v>
       </c>
       <c r="K7">
         <f t="shared" si="5"/>
@@ -1796,16 +3101,16 @@
     </row>
     <row r="8" spans="1:16">
       <c r="H8">
-        <f t="shared" si="7"/>
-        <v>11.5</v>
+        <f>H7+0.5</f>
+        <v>12</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>1.0243607988466179</v>
+        <v>1.0091185839467527</v>
       </c>
       <c r="J8">
         <f t="shared" si="4"/>
-        <v>4.3550906946728446E-2</v>
+        <v>5.2752317490098413E-2</v>
       </c>
       <c r="K8">
         <f t="shared" si="5"/>
@@ -1816,30 +3121,29 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <f>F3</f>
-        <v>20.931799999999999</v>
+        <v>16</v>
       </c>
       <c r="O8">
-        <f t="shared" si="1"/>
-        <v>1.0466018020893262</v>
+        <f>(N8^$C$25-$F$2^$C$25+1)</f>
+        <v>1.0170161965533238</v>
       </c>
       <c r="P8">
-        <f t="shared" si="2"/>
-        <v>0.10054221158869267</v>
+        <f>$A$25*LN(O8)</f>
+        <v>3.7244951291596828E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="H9">
-        <f t="shared" si="7"/>
-        <v>12</v>
+        <f>H8+0.5</f>
+        <v>12.5</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>1.0301698656200213</v>
+        <v>1.0107949908849958</v>
       </c>
       <c r="J9">
         <f t="shared" si="4"/>
-        <v>5.3783071828803902E-2</v>
+        <v>6.2398678102290092E-2</v>
       </c>
       <c r="K9">
         <f t="shared" si="5"/>
@@ -1850,29 +3154,30 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16</v>
+        <f>N8+0.5</f>
+        <v>16.5</v>
       </c>
       <c r="O9">
-        <f t="shared" si="1"/>
-        <v>1.0170161965533238</v>
+        <f>(N9^$C$25-$F$2^$C$25+1)</f>
+        <v>1.0203701147069637</v>
       </c>
       <c r="P9">
-        <f t="shared" si="2"/>
-        <v>3.7244951291596828E-2</v>
+        <f>$A$25*LN(O9)</f>
+        <v>4.4512424977807566E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="H10">
-        <f t="shared" si="7"/>
-        <v>12.5</v>
+        <f>H9+0.5</f>
+        <v>13</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>1.0357662753008798</v>
+        <v>1.0124080513807139</v>
       </c>
       <c r="J10">
         <f t="shared" si="4"/>
-        <v>6.3586236544605684E-2</v>
+        <v>7.1665440116382984E-2</v>
       </c>
       <c r="K10">
         <f t="shared" si="5"/>
@@ -1883,16 +3188,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <f>N9+0.5</f>
-        <v>16.5</v>
+        <f t="shared" ref="N10:N19" si="9">N9+0.5</f>
+        <v>17</v>
       </c>
       <c r="O10">
-        <f t="shared" si="1"/>
-        <v>1.0203701147069637</v>
+        <f>(N10^$C$25-$F$2^$C$25+1)</f>
+        <v>1.023632374624577</v>
       </c>
       <c r="P10">
-        <f t="shared" si="2"/>
-        <v>4.4512424977807566E-2</v>
+        <f>$A$25*LN(O10)</f>
+        <v>5.1558406628230552E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1906,16 +3211,16 @@
         <v>3</v>
       </c>
       <c r="H11">
-        <f t="shared" si="7"/>
-        <v>13</v>
+        <f>H10+0.5</f>
+        <v>13.5</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>1.0411658681776177</v>
+        <v>1.013962462005769</v>
       </c>
       <c r="J11">
         <f t="shared" si="4"/>
-        <v>7.2994561691697837E-2</v>
+        <v>8.058130987853114E-2</v>
       </c>
       <c r="K11">
         <f t="shared" si="5"/>
@@ -1926,16 +3231,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <f t="shared" ref="N11:N20" si="9">N10+0.5</f>
-        <v>17</v>
+        <f t="shared" si="9"/>
+        <v>17.5</v>
       </c>
       <c r="O11">
-        <f t="shared" si="1"/>
-        <v>1.023632374624577</v>
+        <f>(N11^$C$25-$F$2^$C$25+1)</f>
+        <v>1.0268080693615689</v>
       </c>
       <c r="P11">
-        <f t="shared" si="2"/>
-        <v>5.1558406628230552E-2</v>
+        <f>$A$25*LN(O11)</f>
+        <v>5.8395884540120638E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1950,16 +3255,16 @@
         <v>-0.61967733539318681</v>
       </c>
       <c r="H12">
-        <f t="shared" si="7"/>
-        <v>13.5</v>
+        <f>H11+0.5</f>
+        <v>14</v>
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>1.0463827498553577</v>
+        <v>1.0154624127774856</v>
       </c>
       <c r="J12">
         <f t="shared" si="4"/>
-        <v>8.2038298678803079E-2</v>
+        <v>8.9171857256941212E-2</v>
       </c>
       <c r="K12">
         <f t="shared" si="5"/>
@@ -1971,29 +3276,29 @@
       </c>
       <c r="N12">
         <f t="shared" si="9"/>
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="O12">
-        <f t="shared" si="1"/>
-        <v>1.0268080693615689</v>
+        <f>(N12^$C$25-$F$2^$C$25+1)</f>
+        <v>1.0299018732553202</v>
       </c>
       <c r="P12">
-        <f t="shared" si="2"/>
-        <v>5.8395884540120638E-2</v>
+        <f>$A$25*LN(O12)</f>
+        <v>6.5036740508877464E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="H13">
-        <f t="shared" si="7"/>
-        <v>14</v>
+        <f>C3</f>
+        <v>14.892200000000001</v>
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>1.0514295375614118</v>
+        <v>1.018015164404962</v>
       </c>
       <c r="J13">
         <f t="shared" si="4"/>
-        <v>9.0744363190449762E-2</v>
+        <v>0.10376289341840865</v>
       </c>
       <c r="K13">
         <f t="shared" si="5"/>
@@ -2005,29 +3310,32 @@
       </c>
       <c r="N13">
         <f t="shared" si="9"/>
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="O13">
-        <f t="shared" si="1"/>
-        <v>1.0299018732553202</v>
+        <f>(N13^$C$25-$F$2^$C$25+1)</f>
+        <v>1.0329180868965344</v>
       </c>
       <c r="P13">
-        <f t="shared" si="2"/>
-        <v>6.5036740508877464E-2</v>
+        <f>$A$25*LN(O13)</f>
+        <v>7.1491871855695444E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16">
+      <c r="G14">
+        <f>9.6^0.048</f>
+        <v>1.1146769463622317</v>
+      </c>
       <c r="H14">
-        <f t="shared" si="7"/>
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>1.0563175640397959</v>
+        <v>1.0183135732825839</v>
       </c>
       <c r="J14">
         <f t="shared" si="4"/>
-        <v>9.9136807327361534E-2</v>
+        <v>0.10546615199237032</v>
       </c>
       <c r="K14">
         <f t="shared" si="5"/>
@@ -2039,41 +3347,43 @@
       </c>
       <c r="N14">
         <f t="shared" si="9"/>
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="O14">
-        <f t="shared" si="1"/>
-        <v>1.0329180868965344</v>
+        <f>(N14^$C$25-$F$2^$C$25+1)</f>
+        <v>1.0358606761981384</v>
       </c>
       <c r="P14">
-        <f t="shared" si="2"/>
-        <v>7.1491871855695444E-2</v>
+        <f>$A$25*LN(O14)</f>
+        <v>7.7771297099637524E-2</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G15">
+        <f>LN(G14)</f>
+        <v>0.10856462872674191</v>
+      </c>
       <c r="H15">
-        <f t="shared" si="7"/>
-        <v>15</v>
+        <f>H14+0.5</f>
+        <v>15.5</v>
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
-        <v>1.0610570475314445</v>
+        <v>1.0196712078679955</v>
       </c>
       <c r="J15">
         <f t="shared" si="4"/>
-        <v>0.10723721115794632</v>
+        <v>0.11320896466992357</v>
       </c>
       <c r="K15">
         <f t="shared" si="5"/>
@@ -2084,43 +3394,45 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <f t="shared" si="9"/>
-        <v>19</v>
+        <f>N14+0.5</f>
+        <v>19.5</v>
       </c>
       <c r="O15">
-        <f t="shared" si="1"/>
-        <v>1.0358606761981384</v>
+        <f>(N15^$C$25-$F$2^$C$25+1)</f>
+        <v>1.0387333064698754</v>
       </c>
       <c r="P15">
-        <f t="shared" si="2"/>
-        <v>7.7771297099637524E-2</v>
+        <f>$A$25*LN(O15)</f>
+        <v>8.3884247834540376E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1">
-        <v>1.8094335384307887</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
+        <v>5.811479847188024</v>
+      </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="1">
-        <v>0.10530294852953787</v>
+        <v>3.7393754795933508E-2</v>
       </c>
       <c r="E16" s="2">
-        <f>10000*((J3-A2)^2+(J6-A3)^2+(J18-A4)^2+(J36-A5)^2)</f>
-        <v>4.7590815188597624</v>
+        <f>10000*((J3-A2)^2+(J13-A3)^2+(J31-A4)^2+(J34-A5)^2)</f>
+        <v>2.2186446313950525</v>
+      </c>
+      <c r="G16">
+        <f>4.602*LN(G14)</f>
+        <v>0.4996144214004663</v>
       </c>
       <c r="H16">
-        <f t="shared" si="7"/>
-        <v>15.5</v>
+        <f>H15+0.5</f>
+        <v>16</v>
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
-        <v>1.0656572344110384</v>
+        <v>1.0209873227349289</v>
       </c>
       <c r="J16">
         <f t="shared" si="4"/>
-        <v>0.11506500963124086</v>
+        <v>0.12070514883944994</v>
       </c>
       <c r="K16">
         <f t="shared" si="5"/>
@@ -2131,30 +3443,29 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <f>N15+0.5</f>
-        <v>19.5</v>
+        <f t="shared" si="9"/>
+        <v>20</v>
       </c>
       <c r="O16">
-        <f t="shared" si="1"/>
-        <v>1.0387333064698754</v>
+        <f>(N16^$C$25-$F$2^$C$25+1)</f>
+        <v>1.0415393722475093</v>
       </c>
       <c r="P16">
-        <f t="shared" si="2"/>
-        <v>8.3884247834540376E-2</v>
+        <f>$A$25*LN(O16)</f>
+        <v>8.9839248915608128E-2</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="H17">
-        <f t="shared" si="7"/>
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="I17">
         <f t="shared" si="3"/>
-        <v>1.0701265196095198</v>
+        <v>1.0222644272431496</v>
       </c>
       <c r="J17">
         <f t="shared" si="4"/>
-        <v>0.12263776723793211</v>
+        <v>0.12796991009939324</v>
       </c>
       <c r="K17">
         <f t="shared" si="5"/>
@@ -2166,15 +3477,15 @@
       </c>
       <c r="N17">
         <f t="shared" si="9"/>
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="O17">
-        <f t="shared" si="1"/>
-        <v>1.0415393722475093</v>
+        <f>(N17^$C$25-$F$2^$C$25+1)</f>
+        <v>1.0442820234975059</v>
       </c>
       <c r="P17">
-        <f t="shared" si="2"/>
-        <v>8.9839248915608128E-2</v>
+        <f>$A$25*LN(O17)</f>
+        <v>9.5644188695308344E-2</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2182,16 +3493,16 @@
       <c r="B18" s="1"/>
       <c r="E18" s="2"/>
       <c r="H18">
-        <f>C4</f>
-        <v>23.757000000000001</v>
+        <f>H17+0.5</f>
+        <v>17</v>
       </c>
       <c r="I18">
         <f t="shared" si="3"/>
-        <v>1.1270409264909267</v>
+        <v>1.0235048086396412</v>
       </c>
       <c r="J18">
         <f t="shared" si="4"/>
-        <v>0.21640019730294718</v>
+        <v>0.13501709044155669</v>
       </c>
       <c r="K18">
         <f t="shared" si="5"/>
@@ -2202,16 +3513,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <f t="shared" si="9"/>
-        <v>20.5</v>
+        <f>F3</f>
+        <v>20.293500000000002</v>
       </c>
       <c r="O18">
-        <f t="shared" si="1"/>
-        <v>1.0442820234975059</v>
+        <f>(N18^$C$25-$F$2^$C$25+1)</f>
+        <v>1.0431568028054337</v>
       </c>
       <c r="P18">
-        <f t="shared" si="2"/>
-        <v>9.5644188695308344E-2</v>
+        <f>$A$25*LN(O18)</f>
+        <v>9.3264457003555415E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2219,15 +3530,16 @@
       <c r="B19" s="1"/>
       <c r="E19" s="2"/>
       <c r="H19">
-        <v>16.5</v>
+        <f>H18+0.5</f>
+        <v>17.5</v>
       </c>
       <c r="I19">
         <f t="shared" si="3"/>
-        <v>1.0744725488606499</v>
+        <v>1.0247105575936948</v>
       </c>
       <c r="J19">
         <f t="shared" si="4"/>
-        <v>0.12997141012388203</v>
+        <v>0.14185932653861047</v>
       </c>
       <c r="K19">
         <f t="shared" si="5"/>
@@ -2238,30 +3550,29 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <f t="shared" si="9"/>
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="O19">
-        <f t="shared" si="1"/>
-        <v>1.0469641887144616</v>
+        <f>(N19^$C$25-$F$2^$C$25+1)</f>
+        <v>1.0495885953442783</v>
       </c>
       <c r="P19">
-        <f t="shared" si="2"/>
-        <v>0.10130638075359878</v>
+        <f>$A$25*LN(O19)</f>
+        <v>0.10683261832858895</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="H20">
-        <f t="shared" si="7"/>
-        <v>17</v>
+        <f>H19+0.5</f>
+        <v>18</v>
       </c>
       <c r="I20">
         <f t="shared" si="3"/>
-        <v>1.0787023059769096</v>
+        <v>1.0258835901589463</v>
       </c>
       <c r="J20">
         <f t="shared" si="4"/>
-        <v>0.13708042332200066</v>
+        <v>0.14850818571351856</v>
       </c>
       <c r="K20">
         <f t="shared" si="5"/>
@@ -2272,16 +3583,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <f t="shared" si="9"/>
-        <v>21.5</v>
+        <f>N19+0.5</f>
+        <v>22</v>
       </c>
       <c r="O20">
-        <f t="shared" si="1"/>
-        <v>1.0495885953442783</v>
+        <f>(N20^$C$25-$F$2^$C$25+1)</f>
+        <v>1.0521577878971577</v>
       </c>
       <c r="P20">
-        <f t="shared" si="2"/>
-        <v>0.10683261832858895</v>
+        <f>$A$25*LN(O20)</f>
+        <v>0.1122292224588871</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2292,35 +3603,35 @@
       <c r="E21" s="5"/>
       <c r="H21">
         <f>H20+0.5</f>
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="I21">
         <f t="shared" si="3"/>
-        <v>1.0828221877180533</v>
+        <v>1.0270256667466393</v>
       </c>
       <c r="J21">
         <f t="shared" si="4"/>
-        <v>0.14397801920472611</v>
+        <v>0.15497428326333998</v>
       </c>
       <c r="K21">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L21">
-        <f>$D$22*(1-EXP(K21))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N21">
         <f>N20+0.5</f>
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="O21">
-        <f t="shared" si="1"/>
-        <v>1.0521577878971577</v>
+        <f>(N21^$C$25-$F$2^$C$25+1)</f>
+        <v>1.0546741440578491</v>
       </c>
       <c r="P21">
-        <f t="shared" si="2"/>
-        <v>0.1122292224588871</v>
+        <f>$A$25*LN(O21)</f>
+        <v>0.11750208468920523</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2331,15 +3642,15 @@
       <c r="E22" s="5"/>
       <c r="H22">
         <f>H21+0.5</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I22">
         <f t="shared" si="3"/>
-        <v>1.0868380683167329</v>
+        <v>1.0281384085857987</v>
       </c>
       <c r="J22">
         <f t="shared" si="4"/>
-        <v>0.15067628204981554</v>
+        <v>0.16126738412368158</v>
       </c>
       <c r="K22">
         <f t="shared" si="5"/>
@@ -2351,29 +3662,29 @@
       </c>
       <c r="N22">
         <f>N21+0.5</f>
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="O22">
-        <f t="shared" si="1"/>
-        <v>1.0546741440578491</v>
+        <f>(N22^$C$25-$F$2^$C$25+1)</f>
+        <v>1.0571398890538009</v>
       </c>
       <c r="P22">
-        <f t="shared" si="2"/>
-        <v>0.11750208468920523</v>
+        <f>$A$25*LN(O22)</f>
+        <v>0.12265670505927677</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="H23">
         <f>H22+0.5</f>
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="I23">
         <f t="shared" si="3"/>
-        <v>1.0907553553348477</v>
+        <v>1.0292233120598822</v>
       </c>
       <c r="J23">
         <f t="shared" si="4"/>
-        <v>0.15718629266895451</v>
+        <v>0.16739649131656856</v>
       </c>
       <c r="K23">
         <f t="shared" si="5"/>
@@ -2385,15 +3696,15 @@
       </c>
       <c r="N23">
         <f>N22+0.5</f>
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="O23">
-        <f t="shared" si="1"/>
-        <v>1.0571398890538009</v>
+        <f>(N23^$C$25-$F$2^$C$25+1)</f>
+        <v>1.0595571085030611</v>
       </c>
       <c r="P23">
-        <f t="shared" si="2"/>
-        <v>0.12265670505927677</v>
+        <f>$A$25*LN(O23)</f>
+        <v>0.12769822598732553</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2410,16 +3721,16 @@
         <v>4</v>
       </c>
       <c r="H24">
-        <f t="shared" si="7"/>
-        <v>19</v>
+        <f>H23+0.5</f>
+        <v>20</v>
       </c>
       <c r="I24">
         <f t="shared" si="3"/>
-        <v>1.0945790382159433</v>
+        <v>1.0302817612407489</v>
       </c>
       <c r="J24">
         <f t="shared" si="4"/>
-        <v>0.16351823630763923</v>
+        <v>0.17336992319123318</v>
       </c>
       <c r="K24">
         <f t="shared" si="5"/>
@@ -2431,15 +3742,15 @@
       </c>
       <c r="N24">
         <f>N23+0.5</f>
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="O24">
-        <f t="shared" si="1"/>
-        <v>1.0595571085030611</v>
+        <f>(N24^$C$25-$F$2^$C$25+1)</f>
+        <v>1.0619277599314414</v>
       </c>
       <c r="P24">
-        <f t="shared" si="2"/>
-        <v>0.12769822598732553</v>
+        <f>$A$25*LN(O24)</f>
+        <v>0.13263146256891536</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2453,20 +3764,20 @@
         <v>8.5804357413697338E-2</v>
       </c>
       <c r="E25" s="2">
-        <f>10000*((P2-A2)^2+(P8-A3)^2+(P26-A4)^2+(P54-A5)^2)</f>
-        <v>6.642329993387845</v>
+        <f>10000*((P2-A2)^2+(P18-A3)^2+(P46-A4)^2+(P52-A5)^2)</f>
+        <v>3.1059892950775323</v>
       </c>
       <c r="H25">
-        <f t="shared" si="7"/>
-        <v>19.5</v>
+        <f>H24+0.5</f>
+        <v>20.5</v>
       </c>
       <c r="I25">
         <f t="shared" si="3"/>
-        <v>1.0983137306540207</v>
+        <v>1.0313150388855714</v>
       </c>
       <c r="J25">
         <f t="shared" si="4"/>
-        <v>0.16968149643846037</v>
+        <v>0.17919538111965466</v>
       </c>
       <c r="K25">
         <f t="shared" si="5"/>
@@ -2477,30 +3788,29 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <f>N24+0.5</f>
-        <v>24</v>
+        <v>24.5</v>
       </c>
       <c r="O25">
-        <f t="shared" si="1"/>
-        <v>1.0619277599314414</v>
+        <f>(N25^$C$25-$F$2^$C$25+1)</f>
+        <v>1.0642536831214062</v>
       </c>
       <c r="P25">
-        <f t="shared" si="2"/>
-        <v>0.13263146256891536</v>
+        <f>$A$25*LN(O25)</f>
+        <v>0.13746092973654303</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="H26">
-        <f t="shared" si="7"/>
-        <v>20</v>
+        <f>H25+0.5</f>
+        <v>21</v>
       </c>
       <c r="I26">
         <f t="shared" si="3"/>
-        <v>1.1019637077031896</v>
+        <v>1.0323243361177152</v>
       </c>
       <c r="J26">
         <f t="shared" si="4"/>
-        <v>0.17568473660286096</v>
+        <v>0.18488000902815638</v>
       </c>
       <c r="K26">
         <f t="shared" si="5"/>
@@ -2511,30 +3821,30 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <f>F4</f>
-        <v>34.862499999999997</v>
+        <f t="shared" ref="N26:N51" si="10">N25+0.5</f>
+        <v>25</v>
       </c>
       <c r="O26">
-        <f t="shared" si="1"/>
-        <v>1.1046877796034171</v>
+        <f>(N26^$C$25-$F$2^$C$25+1)</f>
+        <v>1.0665366094324291</v>
       </c>
       <c r="P26">
-        <f t="shared" si="2"/>
-        <v>0.21977123832795997</v>
+        <f>$A$25*LN(O26)</f>
+        <v>0.14219086666212091</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="H27">
-        <f t="shared" si="7"/>
-        <v>20.5</v>
+        <f>H26+0.5</f>
+        <v>21.5</v>
       </c>
       <c r="I27">
         <f t="shared" si="3"/>
-        <v>1.1055329383949393</v>
+        <v>1.0333107609763665</v>
       </c>
       <c r="J27">
         <f t="shared" si="4"/>
-        <v>0.18153597208206901</v>
+        <v>0.19043044591862646</v>
       </c>
       <c r="K27">
         <f t="shared" si="5"/>
@@ -2545,29 +3855,30 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>24.5</v>
+        <f t="shared" si="10"/>
+        <v>25.5</v>
       </c>
       <c r="O27">
-        <f t="shared" si="1"/>
-        <v>1.0642536831214062</v>
+        <f>(N27^$C$25-$F$2^$C$25+1)</f>
+        <v>1.0687781702134067</v>
       </c>
       <c r="P27">
-        <f t="shared" si="2"/>
-        <v>0.13746092973654303</v>
+        <f>$A$25*LN(O27)</f>
+        <v>0.14682525873133004</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="H28">
-        <f t="shared" si="7"/>
-        <v>21</v>
+        <f>H27+0.5</f>
+        <v>22</v>
       </c>
       <c r="I28">
         <f t="shared" si="3"/>
-        <v>1.1090251145022005</v>
+        <v>1.0342753459900926</v>
       </c>
       <c r="J28">
         <f t="shared" si="4"/>
-        <v>0.18724263287605147</v>
+        <v>0.19585287234717308</v>
       </c>
       <c r="K28">
         <f t="shared" si="5"/>
@@ -2578,30 +3889,30 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <f t="shared" ref="N28:N53" si="10">N27+0.5</f>
-        <v>25</v>
+        <f t="shared" si="10"/>
+        <v>26</v>
       </c>
       <c r="O28">
-        <f t="shared" si="1"/>
-        <v>1.0665366094324291</v>
+        <f>(N28^$C$25-$F$2^$C$25+1)</f>
+        <v>1.0709799044115098</v>
       </c>
       <c r="P28">
-        <f t="shared" si="2"/>
-        <v>0.14219086666212091</v>
+        <f>$A$25*LN(O28)</f>
+        <v>0.15136785737393743</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="H29">
-        <f t="shared" si="7"/>
-        <v>21.5</v>
+        <f>H28+0.5</f>
+        <v>22.5</v>
       </c>
       <c r="I29">
         <f t="shared" si="3"/>
-        <v>1.1124436759854972</v>
+        <v>1.035219054905216</v>
       </c>
       <c r="J29">
         <f t="shared" si="4"/>
-        <v>0.192811619224528</v>
+        <v>0.20115305167563646</v>
       </c>
       <c r="K29">
         <f t="shared" si="5"/>
@@ -2613,29 +3924,29 @@
       </c>
       <c r="N29">
         <f t="shared" si="10"/>
-        <v>25.5</v>
+        <v>26.5</v>
       </c>
       <c r="O29">
-        <f t="shared" si="1"/>
-        <v>1.0687781702134067</v>
+        <f>(N29^$C$25-$F$2^$C$25+1)</f>
+        <v>1.0731432654680881</v>
       </c>
       <c r="P29">
-        <f t="shared" si="2"/>
-        <v>0.14682525873133004</v>
+        <f>$A$25*LN(O29)</f>
+        <v>0.15582219799614619</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="H30">
-        <f t="shared" si="7"/>
-        <v>22</v>
+        <f>H29+0.5</f>
+        <v>23</v>
       </c>
       <c r="I30">
         <f t="shared" si="3"/>
-        <v>1.1157918335715078</v>
+        <v>1.0361427886798404</v>
       </c>
       <c r="J30">
         <f t="shared" si="4"/>
-        <v>0.19824935070452404</v>
+        <v>0.20633636678583236</v>
       </c>
       <c r="K30">
         <f t="shared" si="5"/>
@@ -2647,29 +3958,29 @@
       </c>
       <c r="N30">
         <f t="shared" si="10"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O30">
-        <f t="shared" si="1"/>
-        <v>1.0709799044115098</v>
+        <f>(N30^$C$25-$F$2^$C$25+1)</f>
+        <v>1.0752696275805262</v>
       </c>
       <c r="P30">
-        <f t="shared" si="2"/>
-        <v>0.15136785737393743</v>
+        <f>$A$25*LN(O30)</f>
+        <v>0.16019161622874251</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="H31">
-        <f t="shared" si="7"/>
-        <v>22.5</v>
+        <f>C4</f>
+        <v>23.4617</v>
       </c>
       <c r="I31">
         <f t="shared" si="3"/>
-        <v>1.1190725888444688</v>
+        <v>1.0369787566872302</v>
       </c>
       <c r="J31">
         <f t="shared" si="4"/>
-        <v>0.20356180977539373</v>
+        <v>0.21102322318556146</v>
       </c>
       <c r="K31">
         <f t="shared" si="5"/>
@@ -2681,29 +3992,28 @@
       </c>
       <c r="N31">
         <f t="shared" si="10"/>
-        <v>26.5</v>
+        <v>27.5</v>
       </c>
       <c r="O31">
-        <f t="shared" si="1"/>
-        <v>1.0731432654680881</v>
+        <f>(N31^$C$25-$F$2^$C$25+1)</f>
+        <v>1.0773602913989233</v>
       </c>
       <c r="P31">
-        <f t="shared" si="2"/>
-        <v>0.15582219799614619</v>
+        <f>$A$25*LN(O31)</f>
+        <v>0.16447926267723353</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="H32">
-        <f t="shared" si="7"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I32">
         <f t="shared" si="3"/>
-        <v>1.1222887521731291</v>
+        <v>1.0379336522626552</v>
       </c>
       <c r="J32">
         <f t="shared" si="4"/>
-        <v>0.20875458050761969</v>
+        <v>0.21637222660429611</v>
       </c>
       <c r="K32">
         <f t="shared" si="5"/>
@@ -2715,29 +4025,29 @@
       </c>
       <c r="N32">
         <f t="shared" si="10"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O32">
-        <f t="shared" si="1"/>
-        <v>1.0752696275805262</v>
+        <f>(N32^$C$25-$F$2^$C$25+1)</f>
+        <v>1.0794164892178837</v>
       </c>
       <c r="P32">
-        <f t="shared" si="2"/>
-        <v>0.16019161622874251</v>
+        <f>$A$25*LN(O32)</f>
+        <v>0.16868811633660774</v>
       </c>
     </row>
     <row r="33" spans="8:16">
       <c r="H33">
-        <f t="shared" si="7"/>
-        <v>23.5</v>
+        <f>H32+0.5</f>
+        <v>24.5</v>
       </c>
       <c r="I33">
         <f t="shared" si="3"/>
-        <v>1.1254429587480261</v>
+        <v>1.038802315501443</v>
       </c>
       <c r="J33">
         <f t="shared" si="4"/>
-        <v>0.21383288312027943</v>
+        <v>0.22123391271074561</v>
       </c>
       <c r="K33">
         <f t="shared" si="5"/>
@@ -2749,29 +4059,29 @@
       </c>
       <c r="N33">
         <f t="shared" si="10"/>
-        <v>27.5</v>
+        <v>28.5</v>
       </c>
       <c r="O33">
-        <f t="shared" si="1"/>
-        <v>1.0773602913989233</v>
+        <f>(N33^$C$25-$F$2^$C$25+1)</f>
+        <v>1.0814393897163199</v>
       </c>
       <c r="P33">
-        <f t="shared" si="2"/>
-        <v>0.16447926267723353</v>
+        <f>$A$25*LN(O33)</f>
+        <v>0.17282099681312421</v>
       </c>
     </row>
     <row r="34" spans="8:16">
       <c r="H34">
-        <f t="shared" si="7"/>
-        <v>24</v>
+        <f>C5</f>
+        <v>32.9011</v>
       </c>
       <c r="I34">
         <f t="shared" si="3"/>
-        <v>1.1285376829639269</v>
+        <v>1.0512967755928027</v>
       </c>
       <c r="J34">
         <f t="shared" si="4"/>
-        <v>0.21880160485955144</v>
+        <v>0.29071594663616679</v>
       </c>
       <c r="K34">
         <f t="shared" si="5"/>
@@ -2783,335 +4093,266 @@
       </c>
       <c r="N34">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O34">
-        <f t="shared" si="1"/>
-        <v>1.0794164892178837</v>
+        <f>(N34^$C$25-$F$2^$C$25+1)</f>
+        <v>1.0834301022917985</v>
       </c>
       <c r="P34">
-        <f t="shared" si="2"/>
-        <v>0.16868811633660774</v>
+        <f>$A$25*LN(O34)</f>
+        <v>0.17688057547812955</v>
       </c>
     </row>
     <row r="35" spans="8:16">
-      <c r="H35">
-        <f t="shared" si="7"/>
-        <v>24.5</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="3"/>
-        <v>1.1315752513488393</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="4"/>
-        <v>0.22366532767341735</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="N35">
         <f t="shared" si="10"/>
-        <v>28.5</v>
+        <v>29.5</v>
       </c>
       <c r="O35">
-        <f t="shared" si="1"/>
-        <v>1.0814393897163199</v>
+        <f>(N35^$C$25-$F$2^$C$25+1)</f>
+        <v>1.0853896810304617</v>
       </c>
       <c r="P35">
-        <f t="shared" si="2"/>
-        <v>0.17282099681312421</v>
+        <f>$A$25*LN(O35)</f>
+        <v>0.18086938566390554</v>
       </c>
     </row>
     <row r="36" spans="8:16">
-      <c r="H36">
-        <f>C5</f>
-        <v>31.895199999999999</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="3"/>
-        <v>1.1710223734552196</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="4"/>
-        <v>0.28566828383151033</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="N36">
         <f t="shared" si="10"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O36">
-        <f t="shared" si="1"/>
-        <v>1.0834301022917985</v>
+        <f>(N36^$C$25-$F$2^$C$25+1)</f>
+        <v>1.0873191283487775</v>
       </c>
       <c r="P36">
-        <f t="shared" si="2"/>
-        <v>0.17688057547812955</v>
+        <f>$A$25*LN(O36)</f>
+        <v>0.18478983199854254</v>
       </c>
     </row>
     <row r="37" spans="8:16">
       <c r="N37">
         <f t="shared" si="10"/>
-        <v>29.5</v>
+        <v>30.5</v>
       </c>
       <c r="O37">
-        <f t="shared" si="1"/>
-        <v>1.0853896810304617</v>
+        <f>(N37^$C$25-$F$2^$C$25+1)</f>
+        <v>1.0892193983392293</v>
       </c>
       <c r="P37">
-        <f t="shared" si="2"/>
-        <v>0.18086938566390554</v>
+        <f>$A$25*LN(O37)</f>
+        <v>0.18864419896558729</v>
       </c>
     </row>
     <row r="38" spans="8:16">
       <c r="N38">
         <f t="shared" si="10"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O38">
-        <f t="shared" si="1"/>
-        <v>1.0873191283487775</v>
+        <f>(N38^$C$25-$F$2^$C$25+1)</f>
+        <v>1.0910913998484391</v>
       </c>
       <c r="P38">
-        <f t="shared" si="2"/>
-        <v>0.18478983199854254</v>
+        <f>$A$25*LN(O38)</f>
+        <v>0.19243465876440286</v>
       </c>
     </row>
     <row r="39" spans="8:16">
       <c r="N39">
         <f t="shared" si="10"/>
-        <v>30.5</v>
+        <v>31.5</v>
       </c>
       <c r="O39">
-        <f t="shared" si="1"/>
-        <v>1.0892193983392293</v>
+        <f>(N39^$C$25-$F$2^$C$25+1)</f>
+        <v>1.0929359993130661</v>
       </c>
       <c r="P39">
-        <f t="shared" si="2"/>
-        <v>0.18864419896558729</v>
+        <f>$A$25*LN(O39)</f>
+        <v>0.1961632785386562</v>
       </c>
     </row>
     <row r="40" spans="8:16">
       <c r="N40">
         <f t="shared" si="10"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O40">
-        <f t="shared" si="1"/>
-        <v>1.0910913998484391</v>
+        <f>(N40^$C$25-$F$2^$C$25+1)</f>
+        <v>1.0947540233760602</v>
       </c>
       <c r="P40">
-        <f t="shared" si="2"/>
-        <v>0.19243465876440286</v>
+        <f>$A$25*LN(O40)</f>
+        <v>0.199832027032882</v>
       </c>
     </row>
     <row r="41" spans="8:16">
       <c r="N41">
         <f t="shared" si="10"/>
-        <v>31.5</v>
+        <v>32.5</v>
       </c>
       <c r="O41">
-        <f t="shared" si="1"/>
-        <v>1.0929359993130661</v>
+        <f>(N41^$C$25-$F$2^$C$25+1)</f>
+        <v>1.0965462613034251</v>
       </c>
       <c r="P41">
-        <f t="shared" si="2"/>
-        <v>0.1961632785386562</v>
+        <f>$A$25*LN(O41)</f>
+        <v>0.20344278073054331</v>
       </c>
     </row>
     <row r="42" spans="8:16">
       <c r="N42">
         <f t="shared" si="10"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O42">
-        <f t="shared" si="1"/>
-        <v>1.0947540233760602</v>
+        <f>(N42^$C$25-$F$2^$C$25+1)</f>
+        <v>1.0983134672195201</v>
       </c>
       <c r="P42">
-        <f t="shared" si="2"/>
-        <v>0.199832027032882</v>
+        <f>$A$25*LN(O42)</f>
+        <v>0.20699732952128261</v>
       </c>
     </row>
     <row r="43" spans="8:16">
       <c r="N43">
         <f t="shared" si="10"/>
-        <v>32.5</v>
+        <v>33.5</v>
       </c>
       <c r="O43">
-        <f t="shared" si="1"/>
-        <v>1.0965462613034251</v>
+        <f>(N43^$C$25-$F$2^$C$25+1)</f>
+        <v>1.1000563621770494</v>
       </c>
       <c r="P43">
-        <f t="shared" si="2"/>
-        <v>0.20344278073054331</v>
+        <f>$A$25*LN(O43)</f>
+        <v>0.21049738194001411</v>
       </c>
     </row>
     <row r="44" spans="8:16">
       <c r="N44">
         <f t="shared" si="10"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O44">
-        <f t="shared" si="1"/>
-        <v>1.0983134672195201</v>
+        <f>(N44^$C$25-$F$2^$C$25+1)</f>
+        <v>1.1017756360762383</v>
       </c>
       <c r="P44">
-        <f t="shared" si="2"/>
-        <v>0.20699732952128261</v>
+        <f>$A$25*LN(O44)</f>
+        <v>0.21394457001607547</v>
       </c>
     </row>
     <row r="45" spans="8:16">
       <c r="N45">
         <f t="shared" si="10"/>
-        <v>33.5</v>
+        <v>34.5</v>
       </c>
       <c r="O45">
-        <f t="shared" si="1"/>
-        <v>1.1000563621770494</v>
+        <f>(N45^$C$25-$F$2^$C$25+1)</f>
+        <v>1.1034719494462226</v>
       </c>
       <c r="P45">
-        <f t="shared" si="2"/>
-        <v>0.21049738194001411</v>
+        <f>$A$25*LN(O45)</f>
+        <v>0.21734045376672953</v>
       </c>
     </row>
     <row r="46" spans="8:16">
       <c r="N46">
-        <f t="shared" si="10"/>
-        <v>34</v>
+        <f>F4</f>
+        <v>32.761699999999998</v>
       </c>
       <c r="O46">
-        <f t="shared" si="1"/>
-        <v>1.1017756360762383</v>
+        <f>(N46^$C$25-$F$2^$C$25+1)</f>
+        <v>1.0974742926095939</v>
       </c>
       <c r="P46">
-        <f t="shared" si="2"/>
-        <v>0.21394457001607547</v>
+        <f>$A$25*LN(O46)</f>
+        <v>0.20531013173839563</v>
       </c>
     </row>
     <row r="47" spans="8:16">
       <c r="N47">
-        <f t="shared" si="10"/>
-        <v>34.5</v>
+        <v>35.5</v>
       </c>
       <c r="O47">
-        <f t="shared" si="1"/>
-        <v>1.1034719494462226</v>
+        <f>(N47^$C$25-$F$2^$C$25+1)</f>
+        <v>1.1067981996762448</v>
       </c>
       <c r="P47">
-        <f t="shared" si="2"/>
-        <v>0.21734045376672953</v>
+        <f>$A$25*LN(O47)</f>
+        <v>0.22398421301553073</v>
       </c>
     </row>
     <row r="48" spans="8:16">
       <c r="N48">
         <f t="shared" si="10"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O48">
-        <f t="shared" si="1"/>
-        <v>1.1051459351003887</v>
+        <f>(N48^$C$25-$F$2^$C$25+1)</f>
+        <v>1.108429325069382</v>
       </c>
       <c r="P48">
-        <f t="shared" si="2"/>
-        <v>0.22068652536584762</v>
+        <f>$A$25*LN(O48)</f>
+        <v>0.22723488454569751</v>
       </c>
     </row>
     <row r="49" spans="14:16">
       <c r="N49">
         <f t="shared" si="10"/>
-        <v>35.5</v>
+        <v>36.5</v>
       </c>
       <c r="O49">
-        <f t="shared" si="1"/>
-        <v>1.1067981996762448</v>
+        <f>(N49^$C$25-$F$2^$C$25+1)</f>
+        <v>1.1100398697701703</v>
       </c>
       <c r="P49">
-        <f t="shared" si="2"/>
-        <v>0.22398421301553073</v>
+        <f>$A$25*LN(O49)</f>
+        <v>0.23043985076424411</v>
       </c>
     </row>
     <row r="50" spans="14:16">
       <c r="N50">
         <f t="shared" si="10"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O50">
-        <f t="shared" si="1"/>
-        <v>1.108429325069382</v>
+        <f>(N50^$C$25-$F$2^$C$25+1)</f>
+        <v>1.1116303701110233</v>
       </c>
       <c r="P50">
-        <f t="shared" si="2"/>
-        <v>0.22723488454569751</v>
+        <f>$A$25*LN(O50)</f>
+        <v>0.23360036857821995</v>
       </c>
     </row>
     <row r="51" spans="14:16">
       <c r="N51">
         <f t="shared" si="10"/>
-        <v>36.5</v>
+        <v>37.5</v>
       </c>
       <c r="O51">
-        <f t="shared" si="1"/>
-        <v>1.1100398697701703</v>
+        <f>(N51^$C$25-$F$2^$C$25+1)</f>
+        <v>1.1132013414313322</v>
       </c>
       <c r="P51">
-        <f t="shared" si="2"/>
-        <v>0.23043985076424411</v>
+        <f>$A$25*LN(O51)</f>
+        <v>0.2367176439045332</v>
       </c>
     </row>
     <row r="52" spans="14:16">
       <c r="N52">
-        <f t="shared" si="10"/>
-        <v>37</v>
+        <f>F5</f>
+        <v>46.107599999999998</v>
       </c>
       <c r="O52">
-        <f t="shared" si="1"/>
-        <v>1.1116303701110233</v>
+        <f>(N52^$C$25-$F$2^$C$25+1)</f>
+        <v>1.1376149325873823</v>
       </c>
       <c r="P52">
-        <f t="shared" si="2"/>
-        <v>0.23360036857821995</v>
-      </c>
-    </row>
-    <row r="53" spans="14:16">
-      <c r="N53">
-        <f t="shared" si="10"/>
-        <v>37.5</v>
-      </c>
-      <c r="O53">
-        <f t="shared" si="1"/>
-        <v>1.1132013414313322</v>
-      </c>
-      <c r="P53">
-        <f t="shared" si="2"/>
-        <v>0.2367176439045332</v>
-      </c>
-    </row>
-    <row r="54" spans="14:16">
-      <c r="N54">
-        <f>F5</f>
-        <v>45.883299999999998</v>
-      </c>
-      <c r="O54">
-        <f t="shared" si="1"/>
-        <v>1.1370337766503362</v>
-      </c>
-      <c r="P54">
-        <f t="shared" si="2"/>
-        <v>0.28347616446127355</v>
+        <f>$A$25*LN(O52)</f>
+        <v>0.28460409499341843</v>
       </c>
     </row>
   </sheetData>
@@ -3126,24 +4367,1303 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>9.6</v>
+      </c>
+      <c r="H2">
+        <v>9.6</v>
+      </c>
+      <c r="I2" s="8">
+        <f>$F$3*LN(H2)+$F$4</f>
+        <v>-4.1768563662902825E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>0.1</v>
+      </c>
+      <c r="C3">
+        <v>14.892200000000001</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.24</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3" s="8">
+        <f t="shared" ref="I3:I59" si="0">$F$3*LN(H3)+$F$4</f>
+        <v>5.6204223185709612E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>23.4617</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>-0.54700000000000004</v>
+      </c>
+      <c r="H4">
+        <v>10.5</v>
+      </c>
+      <c r="I4" s="8">
+        <f t="shared" si="0"/>
+        <v>1.7330061719234569E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>0.3</v>
+      </c>
+      <c r="C5">
+        <v>32.9011</v>
+      </c>
+      <c r="H5">
+        <v>11</v>
+      </c>
+      <c r="I5" s="8">
+        <f t="shared" si="0"/>
+        <v>2.8494865471608843E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="H6">
+        <v>11.5</v>
+      </c>
+      <c r="I6" s="8">
+        <f t="shared" si="0"/>
+        <v>3.9163288488608949E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="H7">
+        <v>12</v>
+      </c>
+      <c r="I7" s="8">
+        <f t="shared" si="0"/>
+        <v>4.9377595949120057E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="H8">
+        <v>12.5</v>
+      </c>
+      <c r="I8" s="8">
+        <f t="shared" si="0"/>
+        <v>5.91748746339813E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="H9">
+        <v>13</v>
+      </c>
+      <c r="I9" s="8">
+        <f t="shared" si="0"/>
+        <v>6.8587845790768709E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="H10">
+        <v>13.5</v>
+      </c>
+      <c r="I10" s="8">
+        <f t="shared" si="0"/>
+        <v>7.7645524506652075E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="H11">
+        <v>14</v>
+      </c>
+      <c r="I11" s="8">
+        <f t="shared" si="0"/>
+        <v>8.6373759107661985E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="H12">
+        <v>14.5</v>
+      </c>
+      <c r="I12" s="8">
+        <f t="shared" si="0"/>
+        <v>9.4795675862366813E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="H13">
+        <v>15</v>
+      </c>
+      <c r="I13" s="8">
+        <f t="shared" si="0"/>
+        <v>0.1029320482645304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="H14">
+        <v>15.5</v>
+      </c>
+      <c r="I14" s="8">
+        <f t="shared" si="0"/>
+        <v>0.11080160574204811</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="H15">
+        <v>16</v>
+      </c>
+      <c r="I15" s="8">
+        <f t="shared" si="0"/>
+        <v>0.11842129333754736</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="H16">
+        <v>16.5</v>
+      </c>
+      <c r="I16" s="8">
+        <f t="shared" si="0"/>
+        <v>0.12580649141756828</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9">
+      <c r="H17">
+        <v>17</v>
+      </c>
+      <c r="I17" s="8">
+        <f t="shared" si="0"/>
+        <v>0.13297120257349182</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9">
+      <c r="H18">
+        <v>17.5</v>
+      </c>
+      <c r="I18" s="8">
+        <f t="shared" si="0"/>
+        <v>0.13992821142307243</v>
+      </c>
+    </row>
+    <row r="19" spans="8:9">
+      <c r="H19">
+        <v>18</v>
+      </c>
+      <c r="I19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.14668922189507938</v>
+      </c>
+    </row>
+    <row r="20" spans="8:9">
+      <c r="H20">
+        <v>18.5</v>
+      </c>
+      <c r="I20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.1532649757002269</v>
+      </c>
+    </row>
+    <row r="21" spans="8:9">
+      <c r="H21">
+        <v>19</v>
+      </c>
+      <c r="I21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.15966535499994561</v>
+      </c>
+    </row>
+    <row r="22" spans="8:9">
+      <c r="H22">
+        <v>19.5</v>
+      </c>
+      <c r="I22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.16589947173672814</v>
+      </c>
+    </row>
+    <row r="23" spans="8:9">
+      <c r="H23">
+        <v>20</v>
+      </c>
+      <c r="I23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.1719757456529577</v>
+      </c>
+    </row>
+    <row r="24" spans="8:9">
+      <c r="H24">
+        <v>20.5</v>
+      </c>
+      <c r="I24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.17790197267464691</v>
+      </c>
+    </row>
+    <row r="25" spans="8:9">
+      <c r="H25">
+        <v>21</v>
+      </c>
+      <c r="I25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18368538505362142</v>
+      </c>
+    </row>
+    <row r="26" spans="8:9">
+      <c r="H26">
+        <v>21.5</v>
+      </c>
+      <c r="I26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18933270443206796</v>
+      </c>
+    </row>
+    <row r="27" spans="8:9">
+      <c r="H27">
+        <v>22</v>
+      </c>
+      <c r="I27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.19485018880599581</v>
+      </c>
+    </row>
+    <row r="28" spans="8:9">
+      <c r="H28">
+        <v>22.5</v>
+      </c>
+      <c r="I28" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20024367421048972</v>
+      </c>
+    </row>
+    <row r="29" spans="8:9">
+      <c r="H29">
+        <v>23</v>
+      </c>
+      <c r="I29" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2055186118229958</v>
+      </c>
+    </row>
+    <row r="30" spans="8:9">
+      <c r="H30">
+        <v>23.5</v>
+      </c>
+      <c r="I30" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21068010107602719</v>
+      </c>
+    </row>
+    <row r="31" spans="8:9">
+      <c r="H31">
+        <v>24</v>
+      </c>
+      <c r="I31" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21573291928350691</v>
+      </c>
+    </row>
+    <row r="32" spans="8:9">
+      <c r="H32">
+        <v>24.5</v>
+      </c>
+      <c r="I32" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22068154821216346</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9">
+      <c r="H33">
+        <v>25</v>
+      </c>
+      <c r="I33" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22553019796836804</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9">
+      <c r="H34">
+        <v>25.5</v>
+      </c>
+      <c r="I34" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23028282851945125</v>
+      </c>
+    </row>
+    <row r="35" spans="8:9">
+      <c r="H35">
+        <v>26</v>
+      </c>
+      <c r="I35" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23494316912515567</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9">
+      <c r="H36">
+        <v>26.5</v>
+      </c>
+      <c r="I36" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23951473591812233</v>
+      </c>
+    </row>
+    <row r="37" spans="8:9">
+      <c r="H37">
+        <v>27</v>
+      </c>
+      <c r="I37" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24400084784103893</v>
+      </c>
+    </row>
+    <row r="38" spans="8:9">
+      <c r="H38">
+        <v>27.5</v>
+      </c>
+      <c r="I38" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24840464112140614</v>
+      </c>
+    </row>
+    <row r="39" spans="8:9">
+      <c r="H39">
+        <v>28</v>
+      </c>
+      <c r="I39" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25272908244204884</v>
+      </c>
+    </row>
+    <row r="40" spans="8:9">
+      <c r="H40">
+        <v>28.5</v>
+      </c>
+      <c r="I40" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25697698094590504</v>
+      </c>
+    </row>
+    <row r="41" spans="8:9">
+      <c r="H41">
+        <v>29</v>
+      </c>
+      <c r="I41" s="8">
+        <f t="shared" si="0"/>
+        <v>0.26115099919675377</v>
+      </c>
+    </row>
+    <row r="42" spans="8:9">
+      <c r="H42">
+        <v>29.5</v>
+      </c>
+      <c r="I42" s="8">
+        <f t="shared" si="0"/>
+        <v>0.26525366320298571</v>
+      </c>
+    </row>
+    <row r="43" spans="8:9">
+      <c r="H43">
+        <v>30</v>
+      </c>
+      <c r="I43" s="8">
+        <f t="shared" si="0"/>
+        <v>0.26928737159891725</v>
+      </c>
+    </row>
+    <row r="44" spans="8:9">
+      <c r="H44">
+        <v>30.5</v>
+      </c>
+      <c r="I44" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2732544040672078</v>
+      </c>
+    </row>
+    <row r="45" spans="8:9">
+      <c r="H45">
+        <v>31</v>
+      </c>
+      <c r="I45" s="8">
+        <f t="shared" si="0"/>
+        <v>0.27715692907643508</v>
+      </c>
+    </row>
+    <row r="46" spans="8:9">
+      <c r="H46">
+        <v>31.5</v>
+      </c>
+      <c r="I46" s="8">
+        <f t="shared" si="0"/>
+        <v>0.28099701099958085</v>
+      </c>
+    </row>
+    <row r="47" spans="8:9">
+      <c r="H47">
+        <v>32</v>
+      </c>
+      <c r="I47" s="8">
+        <f t="shared" si="0"/>
+        <v>0.28477661667193432</v>
+      </c>
+    </row>
+    <row r="48" spans="8:9">
+      <c r="H48">
+        <v>32.5</v>
+      </c>
+      <c r="I48" s="8">
+        <f t="shared" si="0"/>
+        <v>0.28849762144056601</v>
+      </c>
+    </row>
+    <row r="49" spans="8:9">
+      <c r="H49">
+        <v>33</v>
+      </c>
+      <c r="I49" s="8">
+        <f t="shared" si="0"/>
+        <v>0.29216181475195513</v>
+      </c>
+    </row>
+    <row r="50" spans="8:9">
+      <c r="H50">
+        <v>33.5</v>
+      </c>
+      <c r="I50" s="8">
+        <f t="shared" si="0"/>
+        <v>0.29577090531944494</v>
+      </c>
+    </row>
+    <row r="51" spans="8:9">
+      <c r="H51">
+        <v>34</v>
+      </c>
+      <c r="I51" s="8">
+        <f t="shared" si="0"/>
+        <v>0.29932652590787867</v>
+      </c>
+    </row>
+    <row r="52" spans="8:9">
+      <c r="H52">
+        <v>34.5</v>
+      </c>
+      <c r="I52" s="8">
+        <f t="shared" si="0"/>
+        <v>0.30283023776895535</v>
+      </c>
+    </row>
+    <row r="53" spans="8:9">
+      <c r="H53">
+        <v>35</v>
+      </c>
+      <c r="I53" s="8">
+        <f t="shared" si="0"/>
+        <v>0.30628353475745917</v>
+      </c>
+    </row>
+    <row r="54" spans="8:9">
+      <c r="H54">
+        <v>35.5</v>
+      </c>
+      <c r="I54" s="8">
+        <f t="shared" si="0"/>
+        <v>0.30968784715552877</v>
+      </c>
+    </row>
+    <row r="55" spans="8:9">
+      <c r="H55">
+        <v>36</v>
+      </c>
+      <c r="I55" s="8">
+        <f t="shared" si="0"/>
+        <v>0.31304454522946634</v>
+      </c>
+    </row>
+    <row r="56" spans="8:9">
+      <c r="H56">
+        <v>36.5</v>
+      </c>
+      <c r="I56" s="8">
+        <f t="shared" si="0"/>
+        <v>0.31635494254122698</v>
+      </c>
+    </row>
+    <row r="57" spans="8:9">
+      <c r="H57">
+        <v>37</v>
+      </c>
+      <c r="I57" s="8">
+        <f t="shared" si="0"/>
+        <v>0.31962029903461375</v>
+      </c>
+    </row>
+    <row r="58" spans="8:9">
+      <c r="H58">
+        <v>37.5</v>
+      </c>
+      <c r="I58" s="8">
+        <f t="shared" si="0"/>
+        <v>0.32284182391432759</v>
+      </c>
+    </row>
+    <row r="59" spans="8:9">
+      <c r="H59">
+        <v>38</v>
+      </c>
+      <c r="I59" s="8">
+        <f t="shared" si="0"/>
+        <v>0.32602067833433246</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>13.67</v>
+      </c>
+      <c r="J2">
+        <v>13.67</v>
+      </c>
+      <c r="K2" s="8">
+        <f>$H$3*LN(J2)+$H$4</f>
+        <v>-7.3592017265822207E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>0.1</v>
+      </c>
+      <c r="B3">
+        <v>20.293500000000002</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f xml:space="preserve"> 0.241</f>
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="J3">
+        <v>14</v>
+      </c>
+      <c r="K3" s="8">
+        <f t="shared" ref="K3:K66" si="0">$H$3*LN(J3)+$H$4</f>
+        <v>5.0128164372772455E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>0.2</v>
+      </c>
+      <c r="B4">
+        <v>32.761699999999998</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8">
+        <v>-0.63100000000000001</v>
+      </c>
+      <c r="J4">
+        <v>14.5</v>
+      </c>
+      <c r="K4" s="8">
+        <f t="shared" si="0"/>
+        <v>1.3469824511793349E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>0.3</v>
+      </c>
+      <c r="B5">
+        <v>46.107599999999998</v>
+      </c>
+      <c r="J5">
+        <v>15</v>
+      </c>
+      <c r="K5" s="8">
+        <f t="shared" si="0"/>
+        <v>2.164009846563264E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="J6">
+        <v>15.5</v>
+      </c>
+      <c r="K6" s="8">
+        <f t="shared" si="0"/>
+        <v>2.9542445765973424E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="J7">
+        <v>16</v>
+      </c>
+      <c r="K7" s="8">
+        <f t="shared" si="0"/>
+        <v>3.7193882059787242E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="J8">
+        <v>16.5</v>
+      </c>
+      <c r="K8" s="8">
+        <f t="shared" si="0"/>
+        <v>4.4609851798474875E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="J9">
+        <v>17</v>
+      </c>
+      <c r="K9" s="8">
+        <f t="shared" si="0"/>
+        <v>5.180441591754803E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="J10">
+        <v>17.5</v>
+      </c>
+      <c r="K10" s="8">
+        <f t="shared" si="0"/>
+        <v>5.8790412304001949E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="J11">
+        <v>18</v>
+      </c>
+      <c r="K11" s="8">
+        <f t="shared" si="0"/>
+        <v>6.557959365297561E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="J12">
+        <v>18.5</v>
+      </c>
+      <c r="K12" s="8">
+        <f t="shared" si="0"/>
+        <v>7.2182746432311151E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="J13">
+        <v>19</v>
+      </c>
+      <c r="K13" s="8">
+        <f t="shared" si="0"/>
+        <v>7.8609793979112053E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="J14">
+        <v>19.5</v>
+      </c>
+      <c r="K14" s="8">
+        <f t="shared" si="0"/>
+        <v>8.4869886202297851E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="J15">
+        <v>20</v>
+      </c>
+      <c r="K15" s="8">
+        <f t="shared" si="0"/>
+        <v>9.0971477926511723E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="J16">
+        <v>20.5</v>
+      </c>
+      <c r="K16" s="8">
+        <f t="shared" si="0"/>
+        <v>9.6922397560791351E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11">
+      <c r="J17">
+        <v>21</v>
+      </c>
+      <c r="K17" s="8">
+        <f t="shared" si="0"/>
+        <v>0.10272990749134492</v>
+      </c>
+    </row>
+    <row r="18" spans="10:11">
+      <c r="J18">
+        <v>21.5</v>
+      </c>
+      <c r="K18" s="8">
+        <f t="shared" si="0"/>
+        <v>0.10840075736720167</v>
+      </c>
+    </row>
+    <row r="19" spans="10:11">
+      <c r="J19">
+        <v>22</v>
+      </c>
+      <c r="K19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.11394123125935418</v>
+      </c>
+    </row>
+    <row r="20" spans="10:11">
+      <c r="J20">
+        <v>22.5</v>
+      </c>
+      <c r="K20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.1193571895197002</v>
+      </c>
+    </row>
+    <row r="21" spans="10:11">
+      <c r="J21">
+        <v>23</v>
+      </c>
+      <c r="K21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.12465410603892502</v>
+      </c>
+    </row>
+    <row r="22" spans="10:11">
+      <c r="J22">
+        <v>23.5</v>
+      </c>
+      <c r="K22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.12983710149717731</v>
+      </c>
+    </row>
+    <row r="23" spans="10:11">
+      <c r="J23">
+        <v>24</v>
+      </c>
+      <c r="K23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.13491097311385492</v>
+      </c>
+    </row>
+    <row r="24" spans="10:11">
+      <c r="J24">
+        <v>24.5</v>
+      </c>
+      <c r="K24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.13988022132971423</v>
+      </c>
+    </row>
+    <row r="25" spans="10:11">
+      <c r="J25">
+        <v>25</v>
+      </c>
+      <c r="K25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.14474907379323632</v>
+      </c>
+    </row>
+    <row r="26" spans="10:11">
+      <c r="J26">
+        <v>25.5</v>
+      </c>
+      <c r="K26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.14952150697161559</v>
+      </c>
+    </row>
+    <row r="27" spans="10:11">
+      <c r="J27">
+        <v>26</v>
+      </c>
+      <c r="K27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.15420126566317716</v>
+      </c>
+    </row>
+    <row r="28" spans="10:11">
+      <c r="J28">
+        <v>26.5</v>
+      </c>
+      <c r="K28" s="8">
+        <f t="shared" si="0"/>
+        <v>0.15879188065111449</v>
+      </c>
+    </row>
+    <row r="29" spans="10:11">
+      <c r="J29">
+        <v>27</v>
+      </c>
+      <c r="K29" s="8">
+        <f t="shared" si="0"/>
+        <v>0.16329668470704328</v>
+      </c>
+    </row>
+    <row r="30" spans="10:11">
+      <c r="J30">
+        <v>27.5</v>
+      </c>
+      <c r="K30" s="8">
+        <f t="shared" si="0"/>
+        <v>0.16771882712607866</v>
+      </c>
+    </row>
+    <row r="31" spans="10:11">
+      <c r="J31">
+        <v>28</v>
+      </c>
+      <c r="K31" s="8">
+        <f t="shared" si="0"/>
+        <v>0.17206128695222411</v>
+      </c>
+    </row>
+    <row r="32" spans="10:11">
+      <c r="J32">
+        <v>28.5</v>
+      </c>
+      <c r="K32" s="8">
+        <f t="shared" si="0"/>
+        <v>0.17632688503317973</v>
+      </c>
+    </row>
+    <row r="33" spans="10:11">
+      <c r="J33">
+        <v>29</v>
+      </c>
+      <c r="K33" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18051829502674022</v>
+      </c>
+    </row>
+    <row r="34" spans="10:11">
+      <c r="J34">
+        <v>29.5</v>
+      </c>
+      <c r="K34" s="8">
+        <f t="shared" si="0"/>
+        <v>0.18463805346633155</v>
+      </c>
+    </row>
+    <row r="35" spans="10:11">
+      <c r="J35">
+        <v>30</v>
+      </c>
+      <c r="K35" s="8">
+        <f t="shared" si="0"/>
+        <v>0.1886885689805794</v>
+      </c>
+    </row>
+    <row r="36" spans="10:11">
+      <c r="J36">
+        <v>30.5</v>
+      </c>
+      <c r="K36" s="8">
+        <f t="shared" si="0"/>
+        <v>0.19267213075082112</v>
+      </c>
+    </row>
+    <row r="37" spans="10:11">
+      <c r="J37">
+        <v>31</v>
+      </c>
+      <c r="K37" s="8">
+        <f t="shared" si="0"/>
+        <v>0.19659091628092018</v>
+      </c>
+    </row>
+    <row r="38" spans="10:11">
+      <c r="J38">
+        <v>31.5</v>
+      </c>
+      <c r="K38" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20044699854541248</v>
+      </c>
+    </row>
+    <row r="39" spans="10:11">
+      <c r="J39">
+        <v>32</v>
+      </c>
+      <c r="K39" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20424235257473411</v>
+      </c>
+    </row>
+    <row r="40" spans="10:11">
+      <c r="J40">
+        <v>32.5</v>
+      </c>
+      <c r="K40" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20797886152990175</v>
+      </c>
+    </row>
+    <row r="41" spans="10:11">
+      <c r="J41">
+        <v>33</v>
+      </c>
+      <c r="K41" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21165832231342174</v>
+      </c>
+    </row>
+    <row r="42" spans="10:11">
+      <c r="J42">
+        <v>33.5</v>
+      </c>
+      <c r="K42" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21528245075827601</v>
+      </c>
+    </row>
+    <row r="43" spans="10:11">
+      <c r="J43">
+        <v>34</v>
+      </c>
+      <c r="K43" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2188528864324949</v>
+      </c>
+    </row>
+    <row r="44" spans="10:11">
+      <c r="J44">
+        <v>34.5</v>
+      </c>
+      <c r="K44" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22237119709299269</v>
+      </c>
+    </row>
+    <row r="45" spans="10:11">
+      <c r="J45">
+        <v>35</v>
+      </c>
+      <c r="K45" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22583888281894859</v>
+      </c>
+    </row>
+    <row r="46" spans="10:11">
+      <c r="J46">
+        <v>35.5</v>
+      </c>
+      <c r="K46" s="8">
+        <f t="shared" si="0"/>
+        <v>0.22925737985201011</v>
+      </c>
+    </row>
+    <row r="47" spans="10:11">
+      <c r="J47">
+        <v>36</v>
+      </c>
+      <c r="K47" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23262806416792248</v>
+      </c>
+    </row>
+    <row r="48" spans="10:11">
+      <c r="J48">
+        <v>36.5</v>
+      </c>
+      <c r="K48" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23595225480181548</v>
+      </c>
+    </row>
+    <row r="49" spans="10:11">
+      <c r="J49">
+        <v>37</v>
+      </c>
+      <c r="K49" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23923121694725802</v>
+      </c>
+    </row>
+    <row r="50" spans="10:11">
+      <c r="J50">
+        <v>37.5</v>
+      </c>
+      <c r="K50" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24246616484730399</v>
+      </c>
+    </row>
+    <row r="51" spans="10:11">
+      <c r="J51">
+        <v>38</v>
+      </c>
+      <c r="K51" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24565826449405892</v>
+      </c>
+    </row>
+    <row r="52" spans="10:11">
+      <c r="J52">
+        <v>38.5</v>
+      </c>
+      <c r="K52" s="8">
+        <f t="shared" si="0"/>
+        <v>0.24880863615179105</v>
+      </c>
+    </row>
+    <row r="53" spans="10:11">
+      <c r="J53">
+        <v>39</v>
+      </c>
+      <c r="K53" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25191835671724472</v>
+      </c>
+    </row>
+    <row r="54" spans="10:11">
+      <c r="J54">
+        <v>39.5</v>
+      </c>
+      <c r="K54" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25498846192960534</v>
+      </c>
+    </row>
+    <row r="55" spans="10:11">
+      <c r="J55">
+        <v>40</v>
+      </c>
+      <c r="K55" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25801994844145859</v>
+      </c>
+    </row>
+    <row r="56" spans="10:11">
+      <c r="J56">
+        <v>40.5</v>
+      </c>
+      <c r="K56" s="8">
+        <f t="shared" si="0"/>
+        <v>0.26101377576111084</v>
+      </c>
+    </row>
+    <row r="57" spans="10:11">
+      <c r="J57">
+        <v>41</v>
+      </c>
+      <c r="K57" s="8">
+        <f t="shared" si="0"/>
+        <v>0.26397086807573822</v>
+      </c>
+    </row>
+    <row r="58" spans="10:11">
+      <c r="J58">
+        <v>41.5</v>
+      </c>
+      <c r="K58" s="8">
+        <f t="shared" si="0"/>
+        <v>0.26689211596403317</v>
+      </c>
+    </row>
+    <row r="59" spans="10:11">
+      <c r="J59">
+        <v>42</v>
+      </c>
+      <c r="K59" s="8">
+        <f t="shared" si="0"/>
+        <v>0.26977837800629179</v>
+      </c>
+    </row>
+    <row r="60" spans="10:11">
+      <c r="J60">
+        <v>42.5</v>
+      </c>
+      <c r="K60" s="8">
+        <f t="shared" si="0"/>
+        <v>0.27263048229921949</v>
+      </c>
+    </row>
+    <row r="61" spans="10:11">
+      <c r="J61">
+        <v>43</v>
+      </c>
+      <c r="K61" s="8">
+        <f t="shared" si="0"/>
+        <v>0.27544922788214854</v>
+      </c>
+    </row>
+    <row r="62" spans="10:11">
+      <c r="J62">
+        <v>43.5</v>
+      </c>
+      <c r="K62" s="8">
+        <f t="shared" si="0"/>
+        <v>0.27823538608080778</v>
+      </c>
+    </row>
+    <row r="63" spans="10:11">
+      <c r="J63">
+        <v>44</v>
+      </c>
+      <c r="K63" s="8">
+        <f t="shared" si="0"/>
+        <v>0.28098970177430083</v>
+      </c>
+    </row>
+    <row r="64" spans="10:11">
+      <c r="J64">
+        <v>44.5</v>
+      </c>
+      <c r="K64" s="8">
+        <f t="shared" si="0"/>
+        <v>0.28371289459049887</v>
+      </c>
+    </row>
+    <row r="65" spans="10:11">
+      <c r="J65">
+        <v>45</v>
+      </c>
+      <c r="K65" s="8">
+        <f t="shared" si="0"/>
+        <v>0.28640566003464696</v>
+      </c>
+    </row>
+    <row r="66" spans="10:11">
+      <c r="J66">
+        <v>45.5</v>
+      </c>
+      <c r="K66" s="8">
+        <f t="shared" si="0"/>
+        <v>0.28906867055561403</v>
+      </c>
+    </row>
+    <row r="67" spans="10:11">
+      <c r="J67">
+        <v>46</v>
+      </c>
+      <c r="K67" s="8">
+        <f t="shared" ref="K67:K75" si="1">$H$3*LN(J67)+$H$4</f>
+        <v>0.29170257655387188</v>
+      </c>
+    </row>
+    <row r="68" spans="10:11">
+      <c r="J68">
+        <v>46.5</v>
+      </c>
+      <c r="K68" s="8">
+        <f t="shared" si="1"/>
+        <v>0.29430800733498774</v>
+      </c>
+    </row>
+    <row r="69" spans="10:11">
+      <c r="J69">
+        <v>47</v>
+      </c>
+      <c r="K69" s="8">
+        <f t="shared" si="1"/>
+        <v>0.29688557201212407</v>
+      </c>
+    </row>
+    <row r="70" spans="10:11">
+      <c r="J70">
+        <v>47.5</v>
+      </c>
+      <c r="K70" s="8">
+        <f t="shared" si="1"/>
+        <v>0.2994358603607834</v>
+      </c>
+    </row>
+    <row r="71" spans="10:11">
+      <c r="J71">
+        <v>48</v>
+      </c>
+      <c r="K71" s="8">
+        <f t="shared" si="1"/>
+        <v>0.30195944362880178</v>
+      </c>
+    </row>
+    <row r="72" spans="10:11">
+      <c r="J72">
+        <v>48.5</v>
+      </c>
+      <c r="K72" s="8">
+        <f t="shared" si="1"/>
+        <v>0.30445687530436838</v>
+      </c>
+    </row>
+    <row r="73" spans="10:11">
+      <c r="J73">
+        <v>49</v>
+      </c>
+      <c r="K73" s="8">
+        <f t="shared" si="1"/>
+        <v>0.30692869184466098</v>
+      </c>
+    </row>
+    <row r="74" spans="10:11">
+      <c r="J74">
+        <v>49.5</v>
+      </c>
+      <c r="K74" s="8">
+        <f t="shared" si="1"/>
+        <v>0.30937541336748942</v>
+      </c>
+    </row>
+    <row r="75" spans="10:11">
+      <c r="J75">
+        <v>50</v>
+      </c>
+      <c r="K75" s="8">
+        <f t="shared" si="1"/>
+        <v>0.31179754430818318</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>